--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="151">
   <si>
     <t xml:space="preserve">Scenario</t>
   </si>
@@ -80,6 +80,112 @@
   </si>
   <si>
     <t xml:space="preserve">Output also mentioned in the "Starting and ending detection position" sheet under the column "Text to find in the Scenario". At the Run time framework will find the starting and ending position of text and will compare it with the API start and end range </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify that Google DLP service, can detect the email infotype and likelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Datatype loaded from the faker library </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking for email infotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify that Google DLP service, can detect the firstName, LastName and Full Name infotype and likelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstName, LastName and FullName to be loaded from the Faker Library</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Checking for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">FirstName, LastName and FullName</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify that Google DLP service, can detect the mac_address infotype and likelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Datatype loaded from the faker library</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Checking for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">mac_address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> infotype</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify that Google DLP service, can detect the ssn infotype and likelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSN Datatype loaded from the faker library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking for SSN infotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that Google DLP service, can detect correct likelihood and infotype of IPV4, IPV6 and private IPV4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPV4, IPV6 and private IPV4 loaded from the faker library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking for IP infotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify that Google DLP service, can detect the Date and DateTime infotype and likelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date and Datetime infotype to be loaded from the faker library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking for Date and Datetime infotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify that Google DLP service, can detect the Phone Number infotype and likelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number infotype to be loaded from the faker library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking for Phone Number infotype</t>
   </si>
   <si>
     <t xml:space="preserve">Input Text</t>
@@ -422,7 +528,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -450,6 +556,17 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -528,9 +645,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -541,19 +662,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -577,90 +714,167 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="76.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="76.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="79.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -683,7 +897,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -695,146 +909,146 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
+      <c r="B1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
+      <c r="A2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>25</v>
+      <c r="A3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="A4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="9" t="n">
         <v>7418396309</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
+      <c r="A5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
+      <c r="A6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>33</v>
+      <c r="A7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>35</v>
+      <c r="A8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>37</v>
+      <c r="A9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>39</v>
+      <c r="A10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>41</v>
+      <c r="A11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
+      <c r="A12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>45</v>
+      <c r="A13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +1070,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -869,451 +1083,451 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="C20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="C22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="C25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="C26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="C29" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="C30" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>108</v>
+      <c r="D31" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>129</v>
+      <c r="A32" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="154">
   <si>
     <t xml:space="preserve">Scenario</t>
   </si>
@@ -113,6 +113,7 @@
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">FirstName, LastName and FullName</t>
     </r>
@@ -130,6 +131,7 @@
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Checking for </t>
     </r>
@@ -138,17 +140,9 @@
         <sz val="11"/>
         <rFont val="Cambria"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">mac_address</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> infotype</t>
+      <t xml:space="preserve">mac_address infotype</t>
     </r>
   </si>
   <si>
@@ -186,6 +180,15 @@
   </si>
   <si>
     <t xml:space="preserve">Checking for Phone Number infotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify that Google DLP service, can detect the master, visa and amex credit card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISA, AMEX and MASTER infotype to be loaded from the faker library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking for Credit Card infotype</t>
   </si>
   <si>
     <t xml:space="preserve">Input Text</t>
@@ -528,7 +531,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -562,11 +565,7 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -678,19 +677,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -714,13 +713,13 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C14"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="76.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="79.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="14.43"/>
   </cols>
@@ -875,6 +874,17 @@
       </c>
       <c r="C14" s="7" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -897,7 +907,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -913,40 +923,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>7418396309</v>
@@ -954,101 +964,101 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +1080,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1087,447 +1097,447 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="D3" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="D15" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
